--- a/biology/Zoologie/Agaonidae/Agaonidae.xlsx
+++ b/biology/Zoologie/Agaonidae/Agaonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agaonidés (famille Agaonidae), également appelées guêpes du figuier, sont de petits hyménoptères de la super-famille des Chalcidoidea. Contrairement aux autres familles de ce groupe, dont la plupart sont des parasitoïdes d'insectes, la majorité des agaonidés sont des phytophages pollinisateurs.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aile antérieure avec nervure marginale à angle droit avec la nervure principale
 Patte moyenne avec le fémur et le tibia nettement plus mince que ceux des autres pattes
@@ -544,9 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces de la sous-famille des guêpes de figuier Agaoninae sont associées aux figuiers (Ficus) étant pour bon nombre d’entre eux leurs pollinisateurs exclusifs. La plante et l’insecte sont totalement dépendants l’un de l’autre, une seule espèce d'Agaonidae ne pouvant polliniser qu’une seule espèce de Ficus (et d'autres insectes peuvent aussi interagir[pas clair]  comme la fourmi Oecophylla smaragdina et la punaise suceuse de sève Membracidae Tricentrus sp. etc[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces de la sous-famille des guêpes de figuier Agaoninae sont associées aux figuiers (Ficus) étant pour bon nombre d’entre eux leurs pollinisateurs exclusifs. La plante et l’insecte sont totalement dépendants l’un de l’autre, une seule espèce d'Agaonidae ne pouvant polliniser qu’une seule espèce de Ficus (et d'autres insectes peuvent aussi interagir[pas clair]  comme la fourmi Oecophylla smaragdina et la punaise suceuse de sève Membracidae Tricentrus sp. etc).
 </t>
         </is>
       </c>
@@ -575,13 +591,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille comporte 757 espèces réparties en 76 genres et 6 sous-familles.
 Agaoninae (357 espèces décrites), Epichrysomallinae (40 espèces), Otitesellinae (79 espèces), Sycoecinae (67 espèces), Sycophaginae (59 espèces), Sycoryctinae (151 espèces), non spécifié (3 espèces).
 Cette famille est sans doute polyphylétique (Rasplus et al 1998), impliquant sans doute que seule la sous-famille des Agaoninae relève de cette famille. Les autres sous-familles (Sycoecninae, Otitesellinae, Sycoryctinae) devraient être incluses dans la famille des Pteromalidae.
-Liste des genres
-Cette liste est établie d'après les données de Noyes (2001).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agaonidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agaonidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste est établie d'après les données de Noyes (2001).
 </t>
         </is>
       </c>
